--- a/GUI data Check.xlsx
+++ b/GUI data Check.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3975" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>列3</t>
   </si>
@@ -146,6 +146,94 @@
   </si>
   <si>
     <t>mobilePhone_infobox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sam_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OU_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManagerPersonalTitle_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workPhone_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobilePhone_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Catalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSource_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catalog_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_OU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_WorkPhone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_Mobile Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalTitle_sqlbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUID_sqlbox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,26 +553,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:Q28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:Q28" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:Q28"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Label_Name" dataDxfId="18"/>
-    <tableColumn id="2" name="TextBox_Name" dataDxfId="17"/>
-    <tableColumn id="3" name="列3" dataDxfId="16"/>
-    <tableColumn id="4" name="列4" dataDxfId="15"/>
-    <tableColumn id="5" name="列5" dataDxfId="14"/>
-    <tableColumn id="6" name="列6" dataDxfId="13"/>
-    <tableColumn id="7" name="列7" dataDxfId="12"/>
-    <tableColumn id="8" name="列8" dataDxfId="11"/>
-    <tableColumn id="9" name="列9" dataDxfId="10"/>
-    <tableColumn id="10" name="列10" dataDxfId="9"/>
-    <tableColumn id="11" name="列11" dataDxfId="8"/>
-    <tableColumn id="12" name="列12" dataDxfId="7"/>
-    <tableColumn id="13" name="列13" dataDxfId="6"/>
-    <tableColumn id="14" name="列14" dataDxfId="5"/>
-    <tableColumn id="15" name="列15" dataDxfId="4"/>
-    <tableColumn id="16" name="列16" dataDxfId="3"/>
-    <tableColumn id="17" name="列17" dataDxfId="2"/>
+    <tableColumn id="1" name="Label_Name" dataDxfId="16"/>
+    <tableColumn id="2" name="TextBox_Name" dataDxfId="15"/>
+    <tableColumn id="3" name="列3" dataDxfId="14"/>
+    <tableColumn id="4" name="列4" dataDxfId="13"/>
+    <tableColumn id="5" name="列5" dataDxfId="12"/>
+    <tableColumn id="6" name="列6" dataDxfId="11"/>
+    <tableColumn id="7" name="列7" dataDxfId="10"/>
+    <tableColumn id="8" name="列8" dataDxfId="9"/>
+    <tableColumn id="9" name="列9" dataDxfId="8"/>
+    <tableColumn id="10" name="列10" dataDxfId="7"/>
+    <tableColumn id="11" name="列11" dataDxfId="6"/>
+    <tableColumn id="12" name="列12" dataDxfId="5"/>
+    <tableColumn id="13" name="列13" dataDxfId="4"/>
+    <tableColumn id="14" name="列14" dataDxfId="3"/>
+    <tableColumn id="15" name="列15" dataDxfId="2"/>
+    <tableColumn id="16" name="列16" dataDxfId="1"/>
+    <tableColumn id="17" name="列17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1149,8 +1237,12 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1168,8 +1260,12 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1187,8 +1283,12 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1206,8 +1306,12 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1225,8 +1329,12 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1244,8 +1352,12 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1263,8 +1375,12 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1282,8 +1398,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1301,8 +1421,12 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1320,8 +1444,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1358,8 +1486,12 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1377,8 +1509,12 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
